--- a/static/download/2022/RP3_APT_CDO_2022_Jan_Mar.xlsx
+++ b/static/download/2022/RP3_APT_CDO_2022_Jan_Mar.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="337">
   <si>
     <t>Data source</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Berlin/ Schoenefeld (EDDB)</t>
+    <t>Berlin Brandenburg (EDDB)</t>
   </si>
   <si>
     <t>EDDB</t>
@@ -386,21 +386,15 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Tukums Jurmala (EVJA)</t>
-  </si>
-  <si>
-    <t>EVJA</t>
+    <t>Liepaja (EVLA)</t>
+  </si>
+  <si>
+    <t>EVLA</t>
   </si>
   <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>Liepaja (EVLA)</t>
-  </si>
-  <si>
-    <t>EVLA</t>
-  </si>
-  <si>
     <t>Riga (EVRA)</t>
   </si>
   <si>
@@ -860,31 +854,13 @@
     <t>LIRF</t>
   </si>
   <si>
-    <t>Karlovy Vary (LKKV)</t>
-  </si>
-  <si>
-    <t>LKKV</t>
+    <t>Prague (LKPR)</t>
+  </si>
+  <si>
+    <t>LKPR</t>
   </si>
   <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Ostrava (LKMT)</t>
-  </si>
-  <si>
-    <t>LKMT</t>
-  </si>
-  <si>
-    <t>Prague (LKPR)</t>
-  </si>
-  <si>
-    <t>LKPR</t>
-  </si>
-  <si>
-    <t>Brno-Tuřany (LKTB)</t>
-  </si>
-  <si>
-    <t>LKTB</t>
   </si>
   <si>
     <t>Malta (LMML)</t>
@@ -2298,7 +2274,7 @@
         <v>228.0</v>
       </c>
       <c r="F47" s="21">
-        <f t="shared" ref="F47:F53" si="2">E47/D47</f>
+        <f t="shared" ref="F47:F55" si="2">E47/D47</f>
         <v>0.1701492537</v>
       </c>
     </row>
@@ -2438,9 +2414,16 @@
       <c r="C54" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
+      <c r="D54" s="20">
+        <v>19.0</v>
+      </c>
+      <c r="E54" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="F54" s="21">
+        <f t="shared" si="2"/>
+        <v>0.1052631579</v>
+      </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="18" t="s">
@@ -2453,14 +2436,14 @@
         <v>126</v>
       </c>
       <c r="D55" s="20">
-        <v>19.0</v>
+        <v>5115.0</v>
       </c>
       <c r="E55" s="20">
-        <v>2.0</v>
+        <v>2993.0</v>
       </c>
       <c r="F55" s="21">
-        <f t="shared" ref="F55:F56" si="3">E55/D55</f>
-        <v>0.1052631579</v>
+        <f t="shared" si="2"/>
+        <v>0.58514174</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -2473,16 +2456,9 @@
       <c r="C56" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="20">
-        <v>5115.0</v>
-      </c>
-      <c r="E56" s="20">
-        <v>2993.0</v>
-      </c>
-      <c r="F56" s="21">
-        <f t="shared" si="3"/>
-        <v>0.58514174</v>
-      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="18" t="s">
@@ -2492,7 +2468,7 @@
         <v>132</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -2500,17 +2476,24 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
+      <c r="D58" s="20">
+        <v>7201.0</v>
+      </c>
+      <c r="E58" s="20">
+        <v>2952.0</v>
+      </c>
+      <c r="F58" s="21">
+        <f t="shared" ref="F58:F138" si="3">E58/D58</f>
+        <v>0.4099430635</v>
+      </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="18" t="s">
@@ -2520,17 +2503,17 @@
         <v>137</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="20">
-        <v>7201.0</v>
+        <v>25263.0</v>
       </c>
       <c r="E59" s="20">
-        <v>2952.0</v>
+        <v>9872.0</v>
       </c>
       <c r="F59" s="21">
-        <f t="shared" ref="F59:F142" si="4">E59/D59</f>
-        <v>0.4099430635</v>
+        <f t="shared" si="3"/>
+        <v>0.390769109</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -2541,17 +2524,17 @@
         <v>139</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" s="20">
-        <v>25263.0</v>
+        <v>3570.0</v>
       </c>
       <c r="E60" s="20">
-        <v>9872.0</v>
+        <v>1667.0</v>
       </c>
       <c r="F60" s="21">
-        <f t="shared" si="4"/>
-        <v>0.390769109</v>
+        <f t="shared" si="3"/>
+        <v>0.4669467787</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -2562,17 +2545,17 @@
         <v>141</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" s="20">
-        <v>3570.0</v>
+        <v>36394.0</v>
       </c>
       <c r="E61" s="20">
-        <v>1667.0</v>
+        <v>13033.0</v>
       </c>
       <c r="F61" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4669467787</v>
+        <f t="shared" si="3"/>
+        <v>0.3581084794</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -2583,17 +2566,17 @@
         <v>143</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D62" s="20">
-        <v>36394.0</v>
+        <v>11743.0</v>
       </c>
       <c r="E62" s="20">
-        <v>13033.0</v>
+        <v>5870.0</v>
       </c>
       <c r="F62" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3581084794</v>
+        <f t="shared" si="3"/>
+        <v>0.4998722643</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -2604,17 +2587,17 @@
         <v>145</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D63" s="20">
-        <v>11743.0</v>
+        <v>12210.0</v>
       </c>
       <c r="E63" s="20">
-        <v>5870.0</v>
+        <v>5621.0</v>
       </c>
       <c r="F63" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4998722643</v>
+        <f t="shared" si="3"/>
+        <v>0.4603603604</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -2625,59 +2608,59 @@
         <v>147</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D64" s="20">
-        <v>12210.0</v>
+        <v>140.0</v>
       </c>
       <c r="E64" s="20">
-        <v>5621.0</v>
+        <v>38.0</v>
       </c>
       <c r="F64" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4603603604</v>
+        <f t="shared" si="3"/>
+        <v>0.2714285714</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>149</v>
       </c>
+      <c r="B65" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="C65" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" s="20">
-        <v>140.0</v>
+        <v>150.0</v>
       </c>
       <c r="E65" s="20">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="F65" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2714285714</v>
+        <f t="shared" si="3"/>
+        <v>0.2333333333</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D66" s="20">
-        <v>150.0</v>
+        <v>4912.0</v>
       </c>
       <c r="E66" s="20">
-        <v>35.0</v>
+        <v>1373.0</v>
       </c>
       <c r="F66" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2333333333</v>
+        <f t="shared" si="3"/>
+        <v>0.279519544</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -2688,17 +2671,17 @@
         <v>154</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D67" s="20">
-        <v>4912.0</v>
+        <v>229.0</v>
       </c>
       <c r="E67" s="20">
-        <v>1373.0</v>
+        <v>43.0</v>
       </c>
       <c r="F67" s="21">
-        <f t="shared" si="4"/>
-        <v>0.279519544</v>
+        <f t="shared" si="3"/>
+        <v>0.1877729258</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -2709,17 +2692,17 @@
         <v>156</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" s="20">
-        <v>229.0</v>
+        <v>365.0</v>
       </c>
       <c r="E68" s="20">
-        <v>43.0</v>
+        <v>106.0</v>
       </c>
       <c r="F68" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1877729258</v>
+        <f t="shared" si="3"/>
+        <v>0.2904109589</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -2730,17 +2713,17 @@
         <v>158</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" s="20">
-        <v>365.0</v>
+        <v>478.0</v>
       </c>
       <c r="E69" s="20">
-        <v>106.0</v>
+        <v>64.0</v>
       </c>
       <c r="F69" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2904109589</v>
+        <f t="shared" si="3"/>
+        <v>0.1338912134</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -2751,17 +2734,17 @@
         <v>160</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D70" s="20">
-        <v>478.0</v>
+        <v>589.0</v>
       </c>
       <c r="E70" s="20">
-        <v>64.0</v>
+        <v>200.0</v>
       </c>
       <c r="F70" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1338912134</v>
+        <f t="shared" si="3"/>
+        <v>0.3395585739</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -2772,17 +2755,17 @@
         <v>162</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D71" s="20">
-        <v>589.0</v>
+        <v>7229.0</v>
       </c>
       <c r="E71" s="20">
-        <v>200.0</v>
+        <v>2161.0</v>
       </c>
       <c r="F71" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3395585739</v>
+        <f t="shared" si="3"/>
+        <v>0.2989348458</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -2793,17 +2776,17 @@
         <v>164</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D72" s="20">
-        <v>7229.0</v>
+        <v>885.0</v>
       </c>
       <c r="E72" s="20">
-        <v>2161.0</v>
+        <v>182.0</v>
       </c>
       <c r="F72" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2989348458</v>
+        <f t="shared" si="3"/>
+        <v>0.2056497175</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
@@ -2814,17 +2797,17 @@
         <v>166</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D73" s="20">
-        <v>885.0</v>
+        <v>634.0</v>
       </c>
       <c r="E73" s="20">
-        <v>182.0</v>
+        <v>414.0</v>
       </c>
       <c r="F73" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2056497175</v>
+        <f t="shared" si="3"/>
+        <v>0.6529968454</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -2835,17 +2818,17 @@
         <v>168</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" s="20">
-        <v>634.0</v>
+        <v>987.0</v>
       </c>
       <c r="E74" s="20">
-        <v>414.0</v>
+        <v>271.0</v>
       </c>
       <c r="F74" s="21">
-        <f t="shared" si="4"/>
-        <v>0.6529968454</v>
+        <f t="shared" si="3"/>
+        <v>0.2745694022</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -2856,17 +2839,17 @@
         <v>170</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D75" s="20">
-        <v>987.0</v>
+        <v>338.0</v>
       </c>
       <c r="E75" s="20">
-        <v>271.0</v>
+        <v>53.0</v>
       </c>
       <c r="F75" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2745694022</v>
+        <f t="shared" si="3"/>
+        <v>0.1568047337</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -2877,17 +2860,17 @@
         <v>172</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" s="20">
-        <v>338.0</v>
+        <v>299.0</v>
       </c>
       <c r="E76" s="20">
-        <v>53.0</v>
+        <v>28.0</v>
       </c>
       <c r="F76" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1568047337</v>
+        <f t="shared" si="3"/>
+        <v>0.09364548495</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -2898,17 +2881,17 @@
         <v>174</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D77" s="20">
-        <v>299.0</v>
+        <v>215.0</v>
       </c>
       <c r="E77" s="20">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="F77" s="21">
-        <f t="shared" si="4"/>
-        <v>0.09364548495</v>
+        <f t="shared" si="3"/>
+        <v>0.0976744186</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -2919,17 +2902,17 @@
         <v>176</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D78" s="20">
-        <v>215.0</v>
+        <v>1246.0</v>
       </c>
       <c r="E78" s="20">
-        <v>21.0</v>
+        <v>557.0</v>
       </c>
       <c r="F78" s="21">
-        <f t="shared" si="4"/>
-        <v>0.0976744186</v>
+        <f t="shared" si="3"/>
+        <v>0.4470304976</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2940,17 +2923,17 @@
         <v>178</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D79" s="20">
-        <v>1246.0</v>
+        <v>425.0</v>
       </c>
       <c r="E79" s="20">
-        <v>557.0</v>
+        <v>174.0</v>
       </c>
       <c r="F79" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4470304976</v>
+        <f t="shared" si="3"/>
+        <v>0.4094117647</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2961,17 +2944,17 @@
         <v>180</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" s="20">
-        <v>425.0</v>
+        <v>472.0</v>
       </c>
       <c r="E80" s="20">
-        <v>174.0</v>
+        <v>243.0</v>
       </c>
       <c r="F80" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4094117647</v>
+        <f t="shared" si="3"/>
+        <v>0.5148305085</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -2982,17 +2965,17 @@
         <v>182</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D81" s="20">
-        <v>472.0</v>
+        <v>1212.0</v>
       </c>
       <c r="E81" s="20">
-        <v>243.0</v>
+        <v>588.0</v>
       </c>
       <c r="F81" s="21">
-        <f t="shared" si="4"/>
-        <v>0.5148305085</v>
+        <f t="shared" si="3"/>
+        <v>0.4851485149</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -3003,17 +2986,17 @@
         <v>184</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" s="20">
-        <v>1212.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E82" s="20">
-        <v>588.0</v>
+        <v>97.0</v>
       </c>
       <c r="F82" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4851485149</v>
+        <f t="shared" si="3"/>
+        <v>0.05094537815</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -3024,17 +3007,17 @@
         <v>186</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D83" s="20">
-        <v>1904.0</v>
+        <v>979.0</v>
       </c>
       <c r="E83" s="20">
-        <v>97.0</v>
+        <v>193.0</v>
       </c>
       <c r="F83" s="21">
-        <f t="shared" si="4"/>
-        <v>0.05094537815</v>
+        <f t="shared" si="3"/>
+        <v>0.1971399387</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -3045,17 +3028,17 @@
         <v>188</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D84" s="20">
-        <v>979.0</v>
+        <v>7935.0</v>
       </c>
       <c r="E84" s="20">
-        <v>193.0</v>
+        <v>1725.0</v>
       </c>
       <c r="F84" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1971399387</v>
+        <f t="shared" si="3"/>
+        <v>0.2173913043</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -3066,17 +3049,17 @@
         <v>190</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D85" s="20">
-        <v>7935.0</v>
+        <v>600.0</v>
       </c>
       <c r="E85" s="20">
-        <v>1725.0</v>
+        <v>49.0</v>
       </c>
       <c r="F85" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2173913043</v>
+        <f t="shared" si="3"/>
+        <v>0.08166666667</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -3087,17 +3070,17 @@
         <v>192</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D86" s="20">
-        <v>600.0</v>
+        <v>1450.0</v>
       </c>
       <c r="E86" s="20">
-        <v>49.0</v>
+        <v>308.0</v>
       </c>
       <c r="F86" s="21">
-        <f t="shared" si="4"/>
-        <v>0.08166666667</v>
+        <f t="shared" si="3"/>
+        <v>0.2124137931</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -3108,17 +3091,17 @@
         <v>194</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D87" s="20">
-        <v>1450.0</v>
+        <v>319.0</v>
       </c>
       <c r="E87" s="20">
-        <v>308.0</v>
+        <v>41.0</v>
       </c>
       <c r="F87" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2124137931</v>
+        <f t="shared" si="3"/>
+        <v>0.1285266458</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
@@ -3129,17 +3112,17 @@
         <v>196</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D88" s="20">
-        <v>319.0</v>
+        <v>1149.0</v>
       </c>
       <c r="E88" s="20">
-        <v>41.0</v>
+        <v>137.0</v>
       </c>
       <c r="F88" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1285266458</v>
+        <f t="shared" si="3"/>
+        <v>0.1192341166</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
@@ -3150,17 +3133,17 @@
         <v>198</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D89" s="20">
-        <v>1149.0</v>
+        <v>1243.0</v>
       </c>
       <c r="E89" s="20">
-        <v>137.0</v>
+        <v>272.0</v>
       </c>
       <c r="F89" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1192341166</v>
+        <f t="shared" si="3"/>
+        <v>0.2188254224</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
@@ -3171,17 +3154,17 @@
         <v>200</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D90" s="20">
-        <v>1243.0</v>
+        <v>205.0</v>
       </c>
       <c r="E90" s="20">
-        <v>272.0</v>
+        <v>24.0</v>
       </c>
       <c r="F90" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2188254224</v>
+        <f t="shared" si="3"/>
+        <v>0.1170731707</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
@@ -3192,17 +3175,17 @@
         <v>202</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D91" s="20">
-        <v>205.0</v>
+        <v>385.0</v>
       </c>
       <c r="E91" s="20">
-        <v>24.0</v>
+        <v>94.0</v>
       </c>
       <c r="F91" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1170731707</v>
+        <f t="shared" si="3"/>
+        <v>0.2441558442</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
@@ -3213,17 +3196,17 @@
         <v>204</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D92" s="20">
-        <v>385.0</v>
+        <v>504.0</v>
       </c>
       <c r="E92" s="20">
-        <v>94.0</v>
+        <v>103.0</v>
       </c>
       <c r="F92" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2441558442</v>
+        <f t="shared" si="3"/>
+        <v>0.2043650794</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
@@ -3234,17 +3217,17 @@
         <v>206</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93" s="20">
-        <v>504.0</v>
+        <v>8336.0</v>
       </c>
       <c r="E93" s="20">
-        <v>103.0</v>
+        <v>1783.0</v>
       </c>
       <c r="F93" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2043650794</v>
+        <f t="shared" si="3"/>
+        <v>0.2138915547</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
@@ -3255,17 +3238,17 @@
         <v>208</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D94" s="20">
-        <v>8336.0</v>
+        <v>10981.0</v>
       </c>
       <c r="E94" s="20">
-        <v>1783.0</v>
+        <v>1866.0</v>
       </c>
       <c r="F94" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2138915547</v>
+        <f t="shared" si="3"/>
+        <v>0.1699298789</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
@@ -3276,17 +3259,17 @@
         <v>210</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D95" s="20">
-        <v>10981.0</v>
+        <v>959.0</v>
       </c>
       <c r="E95" s="20">
-        <v>1866.0</v>
+        <v>398.0</v>
       </c>
       <c r="F95" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1699298789</v>
+        <f t="shared" si="3"/>
+        <v>0.4150156413</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
@@ -3297,17 +3280,17 @@
         <v>212</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D96" s="20">
-        <v>959.0</v>
+        <v>2616.0</v>
       </c>
       <c r="E96" s="20">
-        <v>398.0</v>
+        <v>953.0</v>
       </c>
       <c r="F96" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4150156413</v>
+        <f t="shared" si="3"/>
+        <v>0.3642966361</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
@@ -3318,17 +3301,17 @@
         <v>214</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D97" s="20">
-        <v>2616.0</v>
+        <v>542.0</v>
       </c>
       <c r="E97" s="20">
-        <v>953.0</v>
+        <v>148.0</v>
       </c>
       <c r="F97" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3642966361</v>
+        <f t="shared" si="3"/>
+        <v>0.2730627306</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
@@ -3339,17 +3322,17 @@
         <v>216</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D98" s="20">
-        <v>542.0</v>
+        <v>659.0</v>
       </c>
       <c r="E98" s="20">
-        <v>148.0</v>
+        <v>70.0</v>
       </c>
       <c r="F98" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2730627306</v>
+        <f t="shared" si="3"/>
+        <v>0.1062215478</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
@@ -3360,17 +3343,17 @@
         <v>218</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D99" s="20">
-        <v>659.0</v>
+        <v>2946.0</v>
       </c>
       <c r="E99" s="20">
-        <v>70.0</v>
+        <v>184.0</v>
       </c>
       <c r="F99" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1062215478</v>
+        <f t="shared" si="3"/>
+        <v>0.06245756959</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
@@ -3381,17 +3364,17 @@
         <v>220</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D100" s="20">
-        <v>2946.0</v>
+        <v>392.0</v>
       </c>
       <c r="E100" s="20">
-        <v>184.0</v>
+        <v>109.0</v>
       </c>
       <c r="F100" s="21">
-        <f t="shared" si="4"/>
-        <v>0.06245756959</v>
+        <f t="shared" si="3"/>
+        <v>0.2780612245</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
@@ -3402,17 +3385,17 @@
         <v>222</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D101" s="20">
-        <v>392.0</v>
+        <v>386.0</v>
       </c>
       <c r="E101" s="20">
-        <v>109.0</v>
+        <v>140.0</v>
       </c>
       <c r="F101" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2780612245</v>
+        <f t="shared" si="3"/>
+        <v>0.3626943005</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
@@ -3423,17 +3406,17 @@
         <v>224</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D102" s="20">
-        <v>386.0</v>
+        <v>281.0</v>
       </c>
       <c r="E102" s="20">
-        <v>140.0</v>
+        <v>147.0</v>
       </c>
       <c r="F102" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3626943005</v>
+        <f t="shared" si="3"/>
+        <v>0.5231316726</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
@@ -3444,17 +3427,17 @@
         <v>226</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D103" s="20">
-        <v>281.0</v>
+        <v>6784.0</v>
       </c>
       <c r="E103" s="20">
-        <v>147.0</v>
+        <v>44.0</v>
       </c>
       <c r="F103" s="21">
-        <f t="shared" si="4"/>
-        <v>0.5231316726</v>
+        <f t="shared" si="3"/>
+        <v>0.006485849057</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
@@ -3465,17 +3448,17 @@
         <v>228</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D104" s="20">
-        <v>6784.0</v>
+        <v>39324.0</v>
       </c>
       <c r="E104" s="20">
-        <v>44.0</v>
+        <v>1151.0</v>
       </c>
       <c r="F104" s="21">
-        <f t="shared" si="4"/>
-        <v>0.006485849057</v>
+        <f t="shared" si="3"/>
+        <v>0.02926965721</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
@@ -3486,17 +3469,17 @@
         <v>230</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D105" s="20">
-        <v>39324.0</v>
+        <v>1210.0</v>
       </c>
       <c r="E105" s="20">
-        <v>1151.0</v>
+        <v>85.0</v>
       </c>
       <c r="F105" s="21">
-        <f t="shared" si="4"/>
-        <v>0.02926965721</v>
+        <f t="shared" si="3"/>
+        <v>0.07024793388</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
@@ -3507,17 +3490,17 @@
         <v>232</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D106" s="20">
-        <v>1210.0</v>
+        <v>19031.0</v>
       </c>
       <c r="E106" s="20">
-        <v>85.0</v>
+        <v>549.0</v>
       </c>
       <c r="F106" s="21">
-        <f t="shared" si="4"/>
-        <v>0.07024793388</v>
+        <f t="shared" si="3"/>
+        <v>0.02884766959</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
@@ -3528,17 +3511,17 @@
         <v>234</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D107" s="20">
-        <v>19031.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E107" s="20">
-        <v>549.0</v>
+        <v>379.0</v>
       </c>
       <c r="F107" s="21">
-        <f t="shared" si="4"/>
-        <v>0.02884766959</v>
+        <f t="shared" si="3"/>
+        <v>0.2253269917</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
@@ -3549,17 +3532,17 @@
         <v>236</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D108" s="20">
-        <v>1682.0</v>
+        <v>1415.0</v>
       </c>
       <c r="E108" s="20">
-        <v>379.0</v>
+        <v>444.0</v>
       </c>
       <c r="F108" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2253269917</v>
+        <f t="shared" si="3"/>
+        <v>0.3137809187</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
@@ -3570,17 +3553,17 @@
         <v>238</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D109" s="20">
-        <v>1415.0</v>
+        <v>182.0</v>
       </c>
       <c r="E109" s="20">
-        <v>444.0</v>
+        <v>21.0</v>
       </c>
       <c r="F109" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3137809187</v>
+        <f t="shared" si="3"/>
+        <v>0.1153846154</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
@@ -3591,17 +3574,17 @@
         <v>240</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D110" s="20">
-        <v>182.0</v>
+        <v>180.0</v>
       </c>
       <c r="E110" s="20">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="F110" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1153846154</v>
+        <f t="shared" si="3"/>
+        <v>0.1277777778</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
@@ -3612,17 +3595,17 @@
         <v>242</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D111" s="20">
-        <v>180.0</v>
+        <v>480.0</v>
       </c>
       <c r="E111" s="20">
-        <v>23.0</v>
+        <v>133.0</v>
       </c>
       <c r="F111" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1277777778</v>
+        <f t="shared" si="3"/>
+        <v>0.2770833333</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
@@ -3633,17 +3616,17 @@
         <v>244</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D112" s="20">
-        <v>480.0</v>
+        <v>461.0</v>
       </c>
       <c r="E112" s="20">
-        <v>133.0</v>
+        <v>51.0</v>
       </c>
       <c r="F112" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2770833333</v>
+        <f t="shared" si="3"/>
+        <v>0.1106290672</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
@@ -3654,17 +3637,17 @@
         <v>246</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D113" s="20">
-        <v>461.0</v>
+        <v>1363.0</v>
       </c>
       <c r="E113" s="20">
-        <v>51.0</v>
+        <v>741.0</v>
       </c>
       <c r="F113" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1106290672</v>
+        <f t="shared" si="3"/>
+        <v>0.5436537051</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
@@ -3675,17 +3658,17 @@
         <v>248</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D114" s="20">
-        <v>1363.0</v>
+        <v>235.0</v>
       </c>
       <c r="E114" s="20">
-        <v>741.0</v>
+        <v>78.0</v>
       </c>
       <c r="F114" s="21">
-        <f t="shared" si="4"/>
-        <v>0.5436537051</v>
+        <f t="shared" si="3"/>
+        <v>0.3319148936</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
@@ -3696,17 +3679,17 @@
         <v>250</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D115" s="20">
-        <v>235.0</v>
+        <v>3957.0</v>
       </c>
       <c r="E115" s="20">
-        <v>78.0</v>
+        <v>1025.0</v>
       </c>
       <c r="F115" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3319148936</v>
+        <f t="shared" si="3"/>
+        <v>0.2590346222</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
@@ -3717,17 +3700,17 @@
         <v>252</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D116" s="20">
-        <v>3957.0</v>
+        <v>285.0</v>
       </c>
       <c r="E116" s="20">
-        <v>1025.0</v>
+        <v>74.0</v>
       </c>
       <c r="F116" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2590346222</v>
+        <f t="shared" si="3"/>
+        <v>0.2596491228</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
@@ -3738,17 +3721,17 @@
         <v>254</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D117" s="20">
-        <v>285.0</v>
+        <v>5744.0</v>
       </c>
       <c r="E117" s="20">
-        <v>74.0</v>
+        <v>877.0</v>
       </c>
       <c r="F117" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2596491228</v>
+        <f t="shared" si="3"/>
+        <v>0.1526810585</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
@@ -3759,17 +3742,17 @@
         <v>256</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D118" s="20">
-        <v>5744.0</v>
+        <v>324.0</v>
       </c>
       <c r="E118" s="20">
-        <v>877.0</v>
+        <v>55.0</v>
       </c>
       <c r="F118" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1526810585</v>
+        <f t="shared" si="3"/>
+        <v>0.1697530864</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
@@ -3780,17 +3763,17 @@
         <v>258</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D119" s="20">
-        <v>324.0</v>
+        <v>1167.0</v>
       </c>
       <c r="E119" s="20">
-        <v>55.0</v>
+        <v>181.0</v>
       </c>
       <c r="F119" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1697530864</v>
+        <f t="shared" si="3"/>
+        <v>0.1550985433</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
@@ -3801,17 +3784,17 @@
         <v>260</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D120" s="20">
-        <v>1167.0</v>
+        <v>762.0</v>
       </c>
       <c r="E120" s="20">
-        <v>181.0</v>
+        <v>263.0</v>
       </c>
       <c r="F120" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1550985433</v>
+        <f t="shared" si="3"/>
+        <v>0.345144357</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
@@ -3822,17 +3805,17 @@
         <v>262</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D121" s="20">
-        <v>762.0</v>
+        <v>461.0</v>
       </c>
       <c r="E121" s="20">
-        <v>263.0</v>
+        <v>83.0</v>
       </c>
       <c r="F121" s="21">
-        <f t="shared" si="4"/>
-        <v>0.345144357</v>
+        <f t="shared" si="3"/>
+        <v>0.1800433839</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
@@ -3843,80 +3826,80 @@
         <v>264</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="D122" s="20">
-        <v>461.0</v>
+        <v>16519.0</v>
       </c>
       <c r="E122" s="20">
-        <v>83.0</v>
+        <v>6173.0</v>
       </c>
       <c r="F122" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1800433839</v>
+        <f t="shared" si="3"/>
+        <v>0.3736909014</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D123" s="20">
-        <v>16519.0</v>
+        <v>9284.0</v>
       </c>
       <c r="E123" s="20">
-        <v>6173.0</v>
+        <v>3103.0</v>
       </c>
       <c r="F123" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3736909014</v>
+        <f t="shared" si="3"/>
+        <v>0.3342309349</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D124" s="20">
-        <v>9284.0</v>
+        <v>18104.0</v>
       </c>
       <c r="E124" s="20">
-        <v>3103.0</v>
+        <v>4631.0</v>
       </c>
       <c r="F124" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3342309349</v>
+        <f t="shared" si="3"/>
+        <v>0.2557998232</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B125" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>273</v>
-      </c>
       <c r="D125" s="20">
-        <v>18104.0</v>
+        <v>8907.0</v>
       </c>
       <c r="E125" s="20">
-        <v>4631.0</v>
+        <v>3650.0</v>
       </c>
       <c r="F125" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2557998232</v>
+        <f t="shared" si="3"/>
+        <v>0.4097900528</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
@@ -3927,17 +3910,17 @@
         <v>275</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D126" s="20">
-        <v>8907.0</v>
+        <v>9851.0</v>
       </c>
       <c r="E126" s="20">
-        <v>3650.0</v>
+        <v>2649.0</v>
       </c>
       <c r="F126" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4097900528</v>
+        <f t="shared" si="3"/>
+        <v>0.26890671</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
@@ -3948,17 +3931,17 @@
         <v>277</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D127" s="20">
-        <v>9851.0</v>
+        <v>5617.0</v>
       </c>
       <c r="E127" s="20">
-        <v>2649.0</v>
+        <v>1952.0</v>
       </c>
       <c r="F127" s="21">
-        <f t="shared" si="4"/>
-        <v>0.26890671</v>
+        <f t="shared" si="3"/>
+        <v>0.3475164679</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1">
@@ -3969,17 +3952,17 @@
         <v>279</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D128" s="20">
-        <v>5617.0</v>
+        <v>17458.0</v>
       </c>
       <c r="E128" s="20">
-        <v>1952.0</v>
+        <v>7085.0</v>
       </c>
       <c r="F128" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3475164679</v>
+        <f t="shared" si="3"/>
+        <v>0.4058311376</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
@@ -3990,143 +3973,143 @@
         <v>281</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D129" s="20">
-        <v>17458.0</v>
+        <v>8222.0</v>
       </c>
       <c r="E129" s="20">
-        <v>7085.0</v>
+        <v>2124.0</v>
       </c>
       <c r="F129" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4058311376</v>
+        <f t="shared" si="3"/>
+        <v>0.2583313063</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D130" s="20">
-        <v>80.0</v>
+        <v>3753.0</v>
       </c>
       <c r="E130" s="20">
-        <v>10.0</v>
+        <v>2081.0</v>
       </c>
       <c r="F130" s="21">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
+        <f t="shared" si="3"/>
+        <v>0.5544897415</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D131" s="20">
-        <v>588.0</v>
+        <v>1140.0</v>
       </c>
       <c r="E131" s="20">
-        <v>271.0</v>
+        <v>298.0</v>
       </c>
       <c r="F131" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4608843537</v>
+        <f t="shared" si="3"/>
+        <v>0.2614035088</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B132" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C132" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C132" s="19" t="s">
-        <v>284</v>
-      </c>
       <c r="D132" s="20">
-        <v>8222.0</v>
+        <v>2742.0</v>
       </c>
       <c r="E132" s="20">
-        <v>2124.0</v>
+        <v>311.0</v>
       </c>
       <c r="F132" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2583313063</v>
+        <f t="shared" si="3"/>
+        <v>0.1134208607</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D133" s="20">
-        <v>512.0</v>
+        <v>442.0</v>
       </c>
       <c r="E133" s="20">
-        <v>213.0</v>
+        <v>143.0</v>
       </c>
       <c r="F133" s="21">
-        <f t="shared" si="4"/>
-        <v>0.416015625</v>
+        <f t="shared" si="3"/>
+        <v>0.3235294118</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D134" s="20">
-        <v>3753.0</v>
+        <v>821.0</v>
       </c>
       <c r="E134" s="20">
-        <v>2081.0</v>
+        <v>228.0</v>
       </c>
       <c r="F134" s="21">
-        <f t="shared" si="4"/>
-        <v>0.5544897415</v>
+        <f t="shared" si="3"/>
+        <v>0.2777101096</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D135" s="20">
-        <v>1140.0</v>
+        <v>3346.0</v>
       </c>
       <c r="E135" s="20">
-        <v>298.0</v>
+        <v>486.0</v>
       </c>
       <c r="F135" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2614035088</v>
+        <f t="shared" si="3"/>
+        <v>0.1452480574</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
@@ -4137,17 +4120,17 @@
         <v>298</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D136" s="20">
-        <v>2742.0</v>
+        <v>16826.0</v>
       </c>
       <c r="E136" s="20">
-        <v>311.0</v>
+        <v>5487.0</v>
       </c>
       <c r="F136" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1134208607</v>
+        <f t="shared" si="3"/>
+        <v>0.3261024605</v>
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
@@ -4158,101 +4141,94 @@
         <v>300</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D137" s="20">
-        <v>442.0</v>
+        <v>281.0</v>
       </c>
       <c r="E137" s="20">
-        <v>143.0</v>
+        <v>192.0</v>
       </c>
       <c r="F137" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3235294118</v>
+        <f t="shared" si="3"/>
+        <v>0.6832740214</v>
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="B138" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>296</v>
-      </c>
       <c r="D138" s="20">
-        <v>821.0</v>
+        <v>547.0</v>
       </c>
       <c r="E138" s="20">
-        <v>228.0</v>
+        <v>177.0</v>
       </c>
       <c r="F138" s="21">
-        <f t="shared" si="4"/>
-        <v>0.2777101096</v>
+        <f t="shared" si="3"/>
+        <v>0.323583181</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D139" s="20">
-        <v>3346.0</v>
-      </c>
-      <c r="E139" s="20">
-        <v>486.0</v>
-      </c>
-      <c r="F139" s="21">
-        <f t="shared" si="4"/>
-        <v>0.1452480574</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="21"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D140" s="20">
-        <v>16826.0</v>
+        <v>3393.0</v>
       </c>
       <c r="E140" s="20">
-        <v>5487.0</v>
+        <v>1992.0</v>
       </c>
       <c r="F140" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3261024605</v>
+        <f t="shared" ref="F140:F150" si="4">E140/D140</f>
+        <v>0.5870910698</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D141" s="20">
-        <v>281.0</v>
+        <v>21.0</v>
       </c>
       <c r="E141" s="20">
-        <v>192.0</v>
+        <v>21.0</v>
       </c>
       <c r="F141" s="21">
         <f t="shared" si="4"/>
-        <v>0.6832740214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
@@ -4263,17 +4239,17 @@
         <v>311</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D142" s="20">
-        <v>547.0</v>
+        <v>2506.0</v>
       </c>
       <c r="E142" s="20">
-        <v>177.0</v>
+        <v>1128.0</v>
       </c>
       <c r="F142" s="21">
         <f t="shared" si="4"/>
-        <v>0.323583181</v>
+        <v>0.4501197127</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
@@ -4284,11 +4260,18 @@
         <v>313</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="21"/>
+        <v>301</v>
+      </c>
+      <c r="D143" s="20">
+        <v>1790.0</v>
+      </c>
+      <c r="E143" s="20">
+        <v>1224.0</v>
+      </c>
+      <c r="F143" s="21">
+        <f t="shared" si="4"/>
+        <v>0.6837988827</v>
+      </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="18" t="s">
@@ -4298,17 +4281,17 @@
         <v>315</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D144" s="20">
-        <v>3393.0</v>
+        <v>8214.0</v>
       </c>
       <c r="E144" s="20">
-        <v>1992.0</v>
+        <v>3629.0</v>
       </c>
       <c r="F144" s="21">
-        <f t="shared" ref="F144:F154" si="5">E144/D144</f>
-        <v>0.5870910698</v>
+        <f t="shared" si="4"/>
+        <v>0.4418066715</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
@@ -4319,17 +4302,17 @@
         <v>317</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D145" s="20">
-        <v>21.0</v>
+        <v>210.0</v>
       </c>
       <c r="E145" s="20">
-        <v>21.0</v>
+        <v>147.0</v>
       </c>
       <c r="F145" s="21">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
@@ -4340,17 +4323,17 @@
         <v>319</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D146" s="20">
-        <v>2506.0</v>
+        <v>19477.0</v>
       </c>
       <c r="E146" s="20">
-        <v>1128.0</v>
+        <v>10117.0</v>
       </c>
       <c r="F146" s="21">
-        <f t="shared" si="5"/>
-        <v>0.4501197127</v>
+        <f t="shared" si="4"/>
+        <v>0.5194331776</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
@@ -4361,172 +4344,88 @@
         <v>321</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D147" s="20">
-        <v>1790.0</v>
+        <v>485.0</v>
       </c>
       <c r="E147" s="20">
-        <v>1224.0</v>
+        <v>159.0</v>
       </c>
       <c r="F147" s="21">
-        <f t="shared" si="5"/>
-        <v>0.6837988827</v>
+        <f t="shared" si="4"/>
+        <v>0.3278350515</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="B148" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>309</v>
-      </c>
       <c r="D148" s="20">
-        <v>8214.0</v>
+        <v>9118.0</v>
       </c>
       <c r="E148" s="20">
-        <v>3629.0</v>
+        <v>4110.0</v>
       </c>
       <c r="F148" s="21">
-        <f t="shared" si="5"/>
-        <v>0.4418066715</v>
+        <f t="shared" si="4"/>
+        <v>0.4507567449</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D149" s="20">
-        <v>210.0</v>
+        <v>17791.0</v>
       </c>
       <c r="E149" s="20">
-        <v>147.0</v>
+        <v>3268.0</v>
       </c>
       <c r="F149" s="21">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
+        <f t="shared" si="4"/>
+        <v>0.1836883818</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B150" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C150" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C150" s="19" t="s">
-        <v>309</v>
-      </c>
       <c r="D150" s="20">
-        <v>19477.0</v>
+        <v>18526.0</v>
       </c>
       <c r="E150" s="20">
-        <v>10117.0</v>
+        <v>3989.0</v>
       </c>
       <c r="F150" s="21">
-        <f t="shared" si="5"/>
-        <v>0.5194331776</v>
-      </c>
-    </row>
-    <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="B151" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="D151" s="20">
-        <v>485.0</v>
-      </c>
-      <c r="E151" s="20">
-        <v>159.0</v>
-      </c>
-      <c r="F151" s="21">
-        <f t="shared" si="5"/>
-        <v>0.3278350515</v>
-      </c>
-    </row>
-    <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="D152" s="20">
-        <v>9118.0</v>
-      </c>
-      <c r="E152" s="20">
-        <v>4110.0</v>
-      </c>
-      <c r="F152" s="21">
-        <f t="shared" si="5"/>
-        <v>0.4507567449</v>
-      </c>
-    </row>
-    <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D153" s="20">
-        <v>17791.0</v>
-      </c>
-      <c r="E153" s="20">
-        <v>3268.0</v>
-      </c>
-      <c r="F153" s="21">
-        <f t="shared" si="5"/>
-        <v>0.1836883818</v>
-      </c>
-    </row>
-    <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D154" s="20">
-        <v>18526.0</v>
-      </c>
-      <c r="E154" s="20">
-        <v>3989.0</v>
-      </c>
-      <c r="F154" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.2153190111</v>
       </c>
     </row>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
     <row r="155" ht="12.75" customHeight="1"/>
     <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4550,16 +4449,16 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -4567,13 +4466,13 @@
         <v>44335.0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="26">
         <v>2021.0</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -4581,11 +4480,11 @@
         <v>44351.0</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="28" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
